--- a/teaching/traditional_assets/database/data/turkey/turkey_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_brokerage_investment_banking.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0308</v>
+        <v>0.17515</v>
       </c>
       <c r="E2">
-        <v>0.383</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="G2">
-        <v>5.489177459304415e-05</v>
+        <v>-8.69665619756548e-06</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>82.194</v>
+        <v>154.11</v>
       </c>
       <c r="L2">
-        <v>0.003222696086357622</v>
+        <v>0.005297397970777928</v>
       </c>
       <c r="M2">
-        <v>15.9</v>
+        <v>19.66</v>
       </c>
       <c r="N2">
-        <v>0.03990963855421687</v>
+        <v>0.01533900288679098</v>
       </c>
       <c r="O2">
-        <v>0.1934447769910213</v>
+        <v>0.1275712153656479</v>
       </c>
       <c r="P2">
-        <v>15.9</v>
+        <v>19.66</v>
       </c>
       <c r="Q2">
-        <v>0.03990963855421687</v>
+        <v>0.01533900288679098</v>
       </c>
       <c r="R2">
-        <v>0.1934447769910213</v>
+        <v>0.1275712153656479</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,64 +639,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>496.654</v>
+        <v>84.848</v>
       </c>
       <c r="V2">
-        <v>1.246621485943775</v>
+        <v>0.06619957868455957</v>
       </c>
       <c r="W2">
-        <v>0.471978021978022</v>
+        <v>0.5053280987100391</v>
       </c>
       <c r="X2">
-        <v>0.07359030516678214</v>
+        <v>0.06018634743913644</v>
       </c>
       <c r="Y2">
-        <v>0.3983877168112399</v>
+        <v>0.4451417512709027</v>
       </c>
       <c r="Z2">
-        <v>62.70000540840861</v>
+        <v>129.7714340518164</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.06961373915503533</v>
+        <v>0.06055578915689962</v>
       </c>
       <c r="AC2">
-        <v>-0.06961373915503533</v>
+        <v>-0.06055578915689962</v>
       </c>
       <c r="AD2">
-        <v>485.59</v>
+        <v>210.95</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>485.59</v>
+        <v>210.95</v>
       </c>
       <c r="AG2">
-        <v>-11.06399999999996</v>
+        <v>126.102</v>
       </c>
       <c r="AH2">
-        <v>0.5493161687349405</v>
+        <v>0.1413258298998426</v>
       </c>
       <c r="AI2">
-        <v>0.6241757394243994</v>
+        <v>0.3791269028234576</v>
       </c>
       <c r="AJ2">
-        <v>-0.02856434723340966</v>
+        <v>0.08957367584362005</v>
       </c>
       <c r="AK2">
-        <v>-0.0393294373586997</v>
+        <v>0.2674134048120926</v>
       </c>
       <c r="AL2">
-        <v>0.733</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-12.921</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
+        <v>-10.737</v>
       </c>
       <c r="AQ2">
         <v>-0</v>
@@ -710,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Euro Yatirim Holding A.S. (IBSE:EUHOL)</t>
+          <t>Inveo Yatirim Holding A.S. (IBSE:INVEO)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -718,23 +715,29 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.0403</v>
+      </c>
+      <c r="E3">
+        <v>1.951</v>
+      </c>
       <c r="G3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-1.06</v>
+        <v>43.7</v>
       </c>
       <c r="L3">
-        <v>1.866197183098592</v>
+        <v>10.60679611650485</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -743,7 +746,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -752,72 +755,66 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0005298013245033113</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-0.1149674620390456</v>
+        <v>2.090909090909091</v>
       </c>
       <c r="X3">
-        <v>0.06798829233025125</v>
+        <v>0.05642130319520079</v>
       </c>
       <c r="Y3">
-        <v>-0.1829557543692968</v>
+        <v>2.03448778771389</v>
       </c>
       <c r="Z3">
-        <v>-0.04535292238901309</v>
+        <v>0.1390764245206589</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.06596308857188518</v>
+        <v>0.05664282680594886</v>
       </c>
       <c r="AC3">
-        <v>-0.06596308857188518</v>
+        <v>-0.05664282680594886</v>
       </c>
       <c r="AD3">
-        <v>3.08</v>
+        <v>4.06</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.08</v>
+        <v>4.06</v>
       </c>
       <c r="AG3">
-        <v>3.072</v>
+        <v>4.06</v>
       </c>
       <c r="AH3">
-        <v>0.1694169416941694</v>
+        <v>0.02222708857987517</v>
       </c>
       <c r="AI3">
-        <v>0.2566666666666667</v>
+        <v>0.06682027649769584</v>
       </c>
       <c r="AJ3">
-        <v>0.1690512876953555</v>
+        <v>0.02222708857987517</v>
       </c>
       <c r="AK3">
-        <v>0.2561707805203469</v>
+        <v>0.06682027649769584</v>
       </c>
       <c r="AL3">
-        <v>0.733</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.733</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
         <v>0</v>
       </c>
     </row>
@@ -829,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gedik Yatirim Holding A.S. (IBSE:GYHOL)</t>
+          <t>Is Yatirim Menkul Degerler Anonim Sirketi (IBSE:ISMEN)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -838,10 +835,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.498</v>
+        <v>0.271</v>
+      </c>
+      <c r="E4">
+        <v>0.6850000000000001</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-9.543028497067311e-06</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -853,88 +853,94 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="L4">
-        <v>0.819672131147541</v>
+        <v>0.00339852516832318</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>18.1</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.02144041696280502</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0.2008879023307436</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>18.1</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.02144041696280502</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0.2008879023307436</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>0.166</v>
+        <v>40.4</v>
       </c>
       <c r="V4">
-        <v>0.004278350515463918</v>
+        <v>0.04785595830371949</v>
       </c>
       <c r="W4">
-        <v>0.9708737864077669</v>
+        <v>0.5053280987100391</v>
       </c>
       <c r="X4">
-        <v>0.06881400895691842</v>
+        <v>0.05959317489163529</v>
       </c>
       <c r="Y4">
-        <v>0.9020597774508485</v>
+        <v>0.4457349238184038</v>
       </c>
       <c r="Z4">
-        <v>0.691609977324263</v>
+        <v>163.7927838873099</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.06698424617778222</v>
+        <v>0.05941434467461485</v>
       </c>
       <c r="AC4">
-        <v>-0.06698424617778222</v>
+        <v>-0.05941434467461485</v>
       </c>
       <c r="AD4">
-        <v>8.890000000000001</v>
+        <v>105.2</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>8.890000000000001</v>
+        <v>105.2</v>
       </c>
       <c r="AG4">
-        <v>8.724</v>
+        <v>64.80000000000001</v>
       </c>
       <c r="AH4">
-        <v>0.1864122457538268</v>
+        <v>0.1108068253633874</v>
       </c>
       <c r="AI4">
-        <v>0.2984222893588453</v>
+        <v>0.3073327490505405</v>
       </c>
       <c r="AJ4">
-        <v>0.1835704065314367</v>
+        <v>0.07128712871287129</v>
       </c>
       <c r="AK4">
-        <v>0.2944909532811235</v>
+        <v>0.2146406094733356</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-5.86</v>
+      </c>
+      <c r="AQ4">
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +951,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Global Menkul Degerler Anonim Sirketi (IBSE:GLBMD)</t>
+          <t>Euro Yatirim Holding A.S. (IBSE:EUHOL)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -953,26 +959,23 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D5">
-        <v>-0.0414</v>
-      </c>
       <c r="G5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K5">
-        <v>0.464</v>
+        <v>1.64</v>
       </c>
       <c r="L5">
-        <v>0.0004226635088358535</v>
+        <v>-5.878136200716845</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -996,61 +999,61 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>3.98</v>
+        <v>0.008</v>
       </c>
       <c r="V5">
-        <v>0.3158730158730159</v>
+        <v>0.0003493449781659389</v>
       </c>
       <c r="W5">
-        <v>0.06105263157894737</v>
+        <v>0.1838565022421525</v>
       </c>
       <c r="X5">
-        <v>0.07359030516678214</v>
+        <v>0.06018634743913644</v>
       </c>
       <c r="Y5">
-        <v>-0.01253767358783477</v>
+        <v>0.123670154803016</v>
       </c>
       <c r="Z5">
-        <v>113.9979231568017</v>
+        <v>-0.02326551034022682</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.06961373915503533</v>
+        <v>0.06055578915689962</v>
       </c>
       <c r="AC5">
-        <v>-0.06961373915503533</v>
+        <v>-0.06055578915689962</v>
       </c>
       <c r="AD5">
-        <v>4.72</v>
+        <v>3.29</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>4.72</v>
+        <v>3.29</v>
       </c>
       <c r="AG5">
-        <v>0.7399999999999998</v>
+        <v>3.282</v>
       </c>
       <c r="AH5">
-        <v>0.2725173210161663</v>
+        <v>0.1256204658266514</v>
       </c>
       <c r="AI5">
-        <v>0.3581183611532625</v>
+        <v>0.2870855148342059</v>
       </c>
       <c r="AJ5">
-        <v>0.05547226386806595</v>
+        <v>0.1253532961576656</v>
       </c>
       <c r="AK5">
-        <v>0.08043478260869562</v>
+        <v>0.2865874956339504</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>-0.644</v>
+        <v>-2.68</v>
       </c>
       <c r="AQ5">
         <v>-0</v>
@@ -1064,7 +1067,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gedik Yatirim Menkul Degerler A.S. (IBSE:GEDIK)</t>
+          <t>Global Menkul Degerler Anonim Sirketi (IBSE:GLBMD)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1073,10 +1076,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.103</v>
-      </c>
-      <c r="E6">
-        <v>0.342</v>
+        <v>0.0793</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.59</v>
+        <v>1.67</v>
       </c>
       <c r="L6">
-        <v>0.009733711048158639</v>
+        <v>0.0009263368094075882</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1118,61 +1118,61 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>54.8</v>
+        <v>2.74</v>
       </c>
       <c r="V6">
-        <v>0.8643533123028391</v>
+        <v>0.08456790123456791</v>
       </c>
       <c r="W6">
-        <v>0.471978021978022</v>
+        <v>0.1973995271867612</v>
       </c>
       <c r="X6">
-        <v>0.08241965512843526</v>
+        <v>0.06580285320636953</v>
       </c>
       <c r="Y6">
-        <v>0.3895583668495867</v>
+        <v>0.1315966739803917</v>
       </c>
       <c r="Z6">
-        <v>173.0392156862747</v>
+        <v>195.9565217391304</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.07208835695304677</v>
+        <v>0.06594599340976343</v>
       </c>
       <c r="AC6">
-        <v>-0.07208835695304677</v>
+        <v>-0.06594599340976343</v>
       </c>
       <c r="AD6">
-        <v>40.8</v>
+        <v>10.5</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>40.8</v>
+        <v>10.5</v>
       </c>
       <c r="AG6">
-        <v>-14</v>
+        <v>7.76</v>
       </c>
       <c r="AH6">
-        <v>0.3915547024952016</v>
+        <v>0.2447552447552448</v>
       </c>
       <c r="AI6">
-        <v>0.6144578313253011</v>
+        <v>0.5740841990158557</v>
       </c>
       <c r="AJ6">
-        <v>-0.2834008097165992</v>
+        <v>0.1932270916334662</v>
       </c>
       <c r="AK6">
-        <v>-1.206896551724138</v>
+        <v>0.4990353697749196</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>-5.56</v>
+        <v>-0.267</v>
       </c>
       <c r="AQ6">
         <v>-0</v>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Is Yatirim Menkul Degerler Anonim Sirketi (IBSE:ISMEN)</t>
+          <t>Gedik Yatirim Menkul Degerler A.S. (IBSE:GEDIK)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1195,13 +1195,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.166</v>
+        <v>0.863</v>
       </c>
       <c r="E7">
-        <v>0.424</v>
+        <v>0.506</v>
       </c>
       <c r="G7">
-        <v>5.954203667789459e-05</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1213,28 +1213,28 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>64.2</v>
+        <v>17</v>
       </c>
       <c r="L7">
-        <v>0.002730427681943452</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="M7">
-        <v>15.9</v>
+        <v>1.56</v>
       </c>
       <c r="N7">
-        <v>0.05921787709497207</v>
+        <v>0.007662082514734775</v>
       </c>
       <c r="O7">
-        <v>0.2476635514018692</v>
+        <v>0.09176470588235294</v>
       </c>
       <c r="P7">
-        <v>15.9</v>
+        <v>1.56</v>
       </c>
       <c r="Q7">
-        <v>0.05921787709497207</v>
+        <v>0.007662082514734775</v>
       </c>
       <c r="R7">
-        <v>0.2476635514018692</v>
+        <v>0.09176470588235294</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1243,61 +1243,61 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>437.7</v>
+        <v>41.7</v>
       </c>
       <c r="V7">
-        <v>1.630167597765363</v>
+        <v>0.2048133595284873</v>
       </c>
       <c r="W7">
-        <v>0.5279605263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="X7">
-        <v>0.1136383976122498</v>
+        <v>0.06915442688335788</v>
       </c>
       <c r="Y7">
-        <v>0.4143221287035397</v>
+        <v>0.5975122397833088</v>
       </c>
       <c r="Z7">
-        <v>64.97402453852106</v>
+        <v>67.26086956521739</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.07536132412180917</v>
+        <v>0.06733697943394309</v>
       </c>
       <c r="AC7">
-        <v>-0.07536132412180917</v>
+        <v>-0.06733697943394309</v>
       </c>
       <c r="AD7">
-        <v>428.1</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>428.1</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="AG7">
-        <v>-9.599999999999966</v>
+        <v>46.2</v>
       </c>
       <c r="AH7">
-        <v>0.6145564168819982</v>
+        <v>0.3015437392795883</v>
       </c>
       <c r="AI7">
-        <v>0.6519951264087724</v>
+        <v>0.7111650485436893</v>
       </c>
       <c r="AJ7">
-        <v>-0.0370799536500578</v>
+        <v>0.1849479583666934</v>
       </c>
       <c r="AK7">
-        <v>-0.04385564184559143</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>-7.45</v>
+        <v>-1.93</v>
       </c>
       <c r="AQ7">
         <v>-0</v>

--- a/teaching/traditional_assets/database/data/turkey/turkey_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_brokerage_investment_banking.xlsx
@@ -648,10 +648,10 @@
         <v>0.5053280987100391</v>
       </c>
       <c r="X2">
-        <v>0.06018634743913644</v>
+        <v>0.05591268251082138</v>
       </c>
       <c r="Y2">
-        <v>0.4451417512709027</v>
+        <v>0.4494154161992178</v>
       </c>
       <c r="Z2">
         <v>129.7714340518164</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.06055578915689962</v>
+        <v>0.05618208824592539</v>
       </c>
       <c r="AC2">
-        <v>-0.06055578915689962</v>
+        <v>-0.05618208824592539</v>
       </c>
       <c r="AD2">
         <v>210.95</v>
@@ -770,10 +770,10 @@
         <v>2.090909090909091</v>
       </c>
       <c r="X3">
-        <v>0.05642130319520079</v>
+        <v>0.05195879078268548</v>
       </c>
       <c r="Y3">
-        <v>2.03448778771389</v>
+        <v>2.038950300126406</v>
       </c>
       <c r="Z3">
         <v>0.1390764245206589</v>
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05664282680594886</v>
+        <v>0.05216681171301536</v>
       </c>
       <c r="AC3">
-        <v>-0.05664282680594886</v>
+        <v>-0.05216681171301536</v>
       </c>
       <c r="AD3">
         <v>4.06</v>
@@ -892,10 +892,10 @@
         <v>0.5053280987100391</v>
       </c>
       <c r="X4">
-        <v>0.05959317489163529</v>
+        <v>0.05528975755244944</v>
       </c>
       <c r="Y4">
-        <v>0.4457349238184038</v>
+        <v>0.4500383411575897</v>
       </c>
       <c r="Z4">
         <v>163.7927838873099</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.05941434467461485</v>
+        <v>0.05502598474440557</v>
       </c>
       <c r="AC4">
-        <v>-0.05941434467461485</v>
+        <v>-0.05502598474440557</v>
       </c>
       <c r="AD4">
         <v>105.2</v>
@@ -1008,10 +1008,10 @@
         <v>0.1838565022421525</v>
       </c>
       <c r="X5">
-        <v>0.06018634743913644</v>
+        <v>0.05591268251082138</v>
       </c>
       <c r="Y5">
-        <v>0.123670154803016</v>
+        <v>0.1279438197313311</v>
       </c>
       <c r="Z5">
         <v>-0.02326551034022682</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.06055578915689962</v>
+        <v>0.05618208824592539</v>
       </c>
       <c r="AC5">
-        <v>-0.06055578915689962</v>
+        <v>-0.05618208824592539</v>
       </c>
       <c r="AD5">
         <v>3.29</v>
@@ -1127,10 +1127,10 @@
         <v>0.1973995271867612</v>
       </c>
       <c r="X6">
-        <v>0.06580285320636953</v>
+        <v>0.06181090156358801</v>
       </c>
       <c r="Y6">
-        <v>0.1315966739803917</v>
+        <v>0.1355886256231732</v>
       </c>
       <c r="Z6">
         <v>195.9565217391304</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.06594599340976343</v>
+        <v>0.06169018377745291</v>
       </c>
       <c r="AC6">
-        <v>-0.06594599340976343</v>
+        <v>-0.06169018377745291</v>
       </c>
       <c r="AD6">
         <v>10.5</v>
@@ -1252,10 +1252,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="X7">
-        <v>0.06915442688335788</v>
+        <v>0.06533058382470003</v>
       </c>
       <c r="Y7">
-        <v>0.5975122397833088</v>
+        <v>0.6013360828419666</v>
       </c>
       <c r="Z7">
         <v>67.26086956521739</v>
@@ -1264,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.06733697943394309</v>
+        <v>0.06313736555146372</v>
       </c>
       <c r="AC7">
-        <v>-0.06733697943394309</v>
+        <v>-0.06313736555146372</v>
       </c>
       <c r="AD7">
         <v>87.90000000000001</v>
